--- a/Tracker/CGI interview prep.xlsx
+++ b/Tracker/CGI interview prep.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksirimalla\OneDrive - Prolifics Corporation Ltd.,\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E6594C-AF23-49FA-BC52-78B6256F5EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF069AE9-8FA9-485F-B65A-9E705D50A281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E6B63682-12CC-461B-9E7C-74756BD25380}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6B63682-12CC-461B-9E7C-74756BD25380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Topics</t>
   </si>
@@ -130,13 +133,53 @@
 </t>
   </si>
   <si>
-    <t>Not completed</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
-    <t xml:space="preserve">Used:
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Work with vb.net code to check if folder or file exists</t>
+  </si>
+  <si>
+    <t>Do quick chatgpt research</t>
+  </si>
+  <si>
+    <t>apply multiple filters in a single expression</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Brush up on using linq queries</t>
+  </si>
+  <si>
+    <t>brush up on exception handling concepts</t>
+  </si>
+  <si>
+    <t>go through all the phases of reframework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference between workflow and statemachine
+</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>extract tabluar data from pdf and save it in excel</t>
+  </si>
+  <si>
+    <t>Use reqres.in website to practice api calls</t>
+  </si>
+  <si>
+    <t>Used:
 UiPath forms
 UiPath action center
 UiPath Ai center
@@ -149,53 +192,7 @@
 Modern folders vs classic folders
 CI/CD using version controlling
 knowledge of automation ops
-</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Work with vb.net code to check if folder or file exists</t>
-  </si>
-  <si>
-    <t>Do quick chatgpt research</t>
-  </si>
-  <si>
-    <t>apply multiple filters in a single expression</t>
-  </si>
-  <si>
-    <t>Complexity</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Brush up on using linq queries</t>
-  </si>
-  <si>
-    <t>brush up on exception handling concepts</t>
-  </si>
-  <si>
-    <t>go through all the phases of reframework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference between workflow and statemachine
-</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>extract tabluar data from pdf and save it in excel</t>
-  </si>
-  <si>
-    <t>Use reqres.in website to practice api calls</t>
+What is Queue SLA and how would you work with them</t>
   </si>
 </sst>
 </file>
@@ -211,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,13 +217,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,26 +272,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -302,9 +320,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -342,7 +360,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -448,7 +466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -590,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -598,354 +616,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5B3F53-743E-4CCF-92EF-713F4074F881}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D18" xr:uid="{9B5B3F53-743E-4CCF-92EF-713F4074F881}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>